--- a/notebooks/assets/test_random_selection/RFpm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test_random_selection/RFpm25_st0_01_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.384</v>
+        <v>0.347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.315</v>
+        <v>0.235</v>
       </c>
       <c r="D2" t="n">
-        <v>0.207</v>
+        <v>0.159</v>
       </c>
       <c r="E2" t="n">
-        <v>0.224</v>
+        <v>0.199</v>
       </c>
       <c r="F2" t="n">
-        <v>0.204</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.726</v>
+        <v>0.628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.596</v>
+        <v>0.394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.385</v>
+        <v>0.266</v>
       </c>
       <c r="E3" t="n">
-        <v>0.386</v>
+        <v>0.327</v>
       </c>
       <c r="F3" t="n">
-        <v>0.321</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.634</v>
+        <v>0.416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.382</v>
+        <v>0.16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.152</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.17</v>
+        <v>0.114</v>
       </c>
       <c r="F4" t="n">
-        <v>0.106</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.985</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.965</v>
-      </c>
       <c r="D5" t="n">
-        <v>0.96</v>
+        <v>0.981</v>
       </c>
       <c r="E5" t="n">
-        <v>0.989</v>
+        <v>0.993</v>
       </c>
       <c r="F5" t="n">
-        <v>0.983</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="6">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.151999999999999</v>
+        <v>9.153</v>
       </c>
       <c r="C6" t="n">
-        <v>8.582000000000001</v>
+        <v>8.58</v>
       </c>
       <c r="D6" t="n">
         <v>1.617</v>
@@ -567,7 +567,7 @@
         <v>3.83</v>
       </c>
       <c r="F6" t="n">
-        <v>4.193</v>
+        <v>4.192</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.565</v>
+        <v>10.564</v>
       </c>
       <c r="C7" t="n">
-        <v>9.298999999999999</v>
+        <v>9.294</v>
       </c>
       <c r="D7" t="n">
-        <v>1.938</v>
+        <v>1.94</v>
       </c>
       <c r="E7" t="n">
-        <v>4.389</v>
+        <v>4.382</v>
       </c>
       <c r="F7" t="n">
-        <v>4.759</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111.72</v>
+        <v>111.721</v>
       </c>
       <c r="C8" t="n">
-        <v>86.56100000000001</v>
+        <v>86.53</v>
       </c>
       <c r="D8" t="n">
         <v>3.766</v>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.638</v>
+        <v>-1.682</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.072</v>
+        <v>-7.131</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.177</v>
+        <v>-0.187</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.635</v>
+        <v>-2.674</v>
       </c>
     </row>
   </sheetData>
